--- a/Manufacturing/Swallow-V2/bom/Swallow-V2-BOM.xlsx
+++ b/Manufacturing/Swallow-V2/bom/Swallow-V2-BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="10" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="5" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="644">
   <si>
     <t>XMP16-V2 BOM</t>
   </si>
@@ -67,7 +67,7 @@
     <t>TMK212AB7475KG-T</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/TMK212AB7475KG-T/587-2990-2-ND/2714168 </t>
+    <t>http://www.digikey.com/product-detail/en/TMK212AB7475KG-T/587-2990-2-ND/2714168</t>
   </si>
   <si>
     <t>C2</t>
@@ -85,7 +85,7 @@
     <t>C1608C0G1H471J</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/C1608C0G1H471J/445-1289-2-ND/513775 </t>
+    <t>http://www.digikey.com/product-detail/en/C1608C0G1H471J/445-1289-2-ND/513775</t>
   </si>
   <si>
     <t>C3</t>
@@ -112,7 +112,7 @@
     <t>GRM188R71C224KA01D</t>
   </si>
   <si>
-    <t> http://search.digikey.com/us/en/products/GRM188R71C224KA01D/490-3293-1-ND/702834 </t>
+    <t>http://search.digikey.com/us/en/products/GRM188R71C224KA01D/490-3293-1-ND/702834</t>
   </si>
   <si>
     <t>C5</t>
@@ -124,7 +124,7 @@
     <t>GRM219R61A106KE44D</t>
   </si>
   <si>
-    <t> http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 </t>
+    <t>http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331</t>
   </si>
   <si>
     <t>C6</t>
@@ -151,7 +151,7 @@
     <t>0603YC330JAT2A</t>
   </si>
   <si>
-    <t> http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 </t>
+    <t>http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410</t>
   </si>
   <si>
     <t>C9</t>
@@ -178,7 +178,7 @@
     <t>GRM155R71C104KA88D</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/GRM155R71C104KA88D/490-3261-1-ND/702802?cur=USD </t>
+    <t>http://www.digikey.com/product-detail/en/GRM155R71C104KA88D/490-3261-1-ND/702802?cur=USD</t>
   </si>
   <si>
     <t>C14</t>
@@ -190,7 +190,7 @@
     <t>GRM155R71C104KA88</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND</t>
   </si>
   <si>
     <t>C15</t>
@@ -493,13 +493,13 @@
     <t>DFLS240L</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DFLS240LDICT-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DFLS240LDICT-ND</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>LED-E</t>
+    <t>LED Green</t>
   </si>
   <si>
     <t>Lite On</t>
@@ -508,249 +508,267 @@
     <t>LTST-C193KGKT-5A</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>LED-N</t>
-  </si>
-  <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356248 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356248</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>LED-S</t>
-  </si>
-  <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356249 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356249</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>LED-W</t>
-  </si>
-  <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356250 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356250</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356251 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356251</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356252 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356252</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356253 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356253</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356254 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356254</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356255 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356255</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356256 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356256</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356257 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356257</t>
   </si>
   <si>
     <t>D13</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356258 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356258</t>
   </si>
   <si>
     <t>D14</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356259 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356259</t>
   </si>
   <si>
     <t>D15</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356260 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356260</t>
   </si>
   <si>
     <t>D16</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356261 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356261</t>
   </si>
   <si>
     <t>D17</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356262 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356262</t>
   </si>
   <si>
     <t>D18</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356263 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356263</t>
   </si>
   <si>
     <t>D19</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356264 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356264</t>
   </si>
   <si>
     <t>D20</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356265 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356265</t>
   </si>
   <si>
     <t>D21</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356266 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356266</t>
   </si>
   <si>
     <t>D22</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356267 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356267</t>
   </si>
   <si>
     <t>D23</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356268 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356268</t>
   </si>
   <si>
     <t>D24</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356269 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356269</t>
   </si>
   <si>
     <t>D25</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356270 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356270</t>
   </si>
   <si>
     <t>D26</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356271 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356271</t>
   </si>
   <si>
     <t>D27</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356272 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356272</t>
   </si>
   <si>
     <t>D28</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356273 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356273</t>
   </si>
   <si>
     <t>D29</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356274 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356274</t>
   </si>
   <si>
     <t>D30</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356275 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356275</t>
   </si>
   <si>
     <t>D31</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356276 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356276</t>
   </si>
   <si>
     <t>D32</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356277 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356277</t>
   </si>
   <si>
     <t>D33</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 </t>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278</t>
   </si>
   <si>
     <t>D34</t>
   </si>
   <si>
-    <t>LED-5V</t>
-  </si>
-  <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356279 </t>
+    <t>LED-5V Green</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356279</t>
   </si>
   <si>
     <t>D35</t>
   </si>
   <si>
-    <t>LED-3V3</t>
-  </si>
-  <si>
-    <t> http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356280 </t>
+    <t>LED-3V3 Green</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356280</t>
   </si>
   <si>
     <t>D36</t>
   </si>
   <si>
-    <t>LED-C0</t>
+    <t>LED-C0 Yellow</t>
+  </si>
+  <si>
+    <t>LY Q976-P1S2-36</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050</t>
   </si>
   <si>
     <t>D37</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-35</t>
+  </si>
+  <si>
     <t>D38</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-34</t>
+  </si>
+  <si>
     <t>D39</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-33</t>
+  </si>
+  <si>
     <t>D40</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-32</t>
+  </si>
+  <si>
     <t>D41</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-31</t>
+  </si>
+  <si>
     <t>D42</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-30</t>
+  </si>
+  <si>
     <t>D43</t>
   </si>
   <si>
+    <t>LY Q976-P1S2-29</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
@@ -787,7 +805,7 @@
     <t>LQH55PN2R2NR0L</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/LQH55PN2R2NR0L/490-5266-1-ND/2022072?cur=USD </t>
+    <t>http://www.digikey.com/product-detail/en/LQH55PN2R2NR0L/490-5266-1-ND/2022072?cur=USD</t>
   </si>
   <si>
     <t>L2</t>
@@ -799,7 +817,7 @@
     <t>NLCV32T-2R2M-PFR</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD </t>
+    <t>http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD</t>
   </si>
   <si>
     <t>L3</t>
@@ -829,7 +847,7 @@
     <t>PJ-002BH</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/PJ-002BH/CP-002BH-ND/408447 </t>
+    <t>http://www.digikey.com/product-detail/en/PJ-002BH/CP-002BH-ND/408447</t>
   </si>
   <si>
     <t>P2</t>
@@ -847,7 +865,7 @@
     <t>FFC5-30-R-L-TU</t>
   </si>
   <si>
-    <t> http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx </t>
+    <t>http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx</t>
   </si>
   <si>
     <t>P3</t>
@@ -871,7 +889,7 @@
     <t>M20-9981046</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/harwin/m20-9981046/header-2row-10way/dp/1022242 </t>
+    <t>http://uk.farnell.com/harwin/m20-9981046/header-2row-10way/dp/1022242</t>
   </si>
   <si>
     <t>P6</t>
@@ -928,7 +946,7 @@
     <t>M20-9990246</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247 </t>
+    <t>http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247</t>
   </si>
   <si>
     <t>P17</t>
@@ -1426,7 +1444,7 @@
     <t>APX803-31SRG-7</t>
   </si>
   <si>
-    <t> http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 </t>
+    <t>http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948</t>
   </si>
   <si>
     <t>U2</t>
@@ -1444,7 +1462,7 @@
     <t>NC7WZ17P6X</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD </t>
+    <t>http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD</t>
   </si>
   <si>
     <t>U3</t>
@@ -1459,7 +1477,7 @@
     <t>ASE-25.000MHZ-ET</t>
   </si>
   <si>
-    <t> http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610 </t>
+    <t>http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610</t>
   </si>
   <si>
     <t>U4</t>
@@ -1477,7 +1495,7 @@
     <t>LT3480EDD#PBF</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND</t>
   </si>
   <si>
     <t>U5</t>
@@ -1495,7 +1513,7 @@
     <t>SN74CBTD3861PWR</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND</t>
   </si>
   <si>
     <t>U6</t>
@@ -1531,7 +1549,7 @@
     <t>74AHC1GU04W5-7</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND</t>
   </si>
   <si>
     <t>U12</t>
@@ -1543,7 +1561,7 @@
     <t>SN74LVC1G18DCKR</t>
   </si>
   <si>
-    <t> http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 </t>
+    <t>http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179</t>
   </si>
   <si>
     <t>U13</t>
@@ -1573,7 +1591,7 @@
     <t>NCP1529ASNT1G</t>
   </si>
   <si>
-    <t> http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 </t>
+    <t>http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444</t>
   </si>
   <si>
     <t>U18</t>
@@ -1588,7 +1606,7 @@
     <t>Omron</t>
   </si>
   <si>
-    <t> http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND </t>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND</t>
   </si>
   <si>
     <t>U19</t>
@@ -1603,7 +1621,7 @@
     <t>NC7WZ07P6X</t>
   </si>
   <si>
-    <t> http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 </t>
+    <t>http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702</t>
   </si>
   <si>
     <t>U21</t>
@@ -1633,73 +1651,73 @@
     <t>YC124-JR-0733RL</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272</t>
   </si>
   <si>
     <t>U26</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273</t>
   </si>
   <si>
     <t>U27</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274</t>
   </si>
   <si>
     <t>U28</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275</t>
   </si>
   <si>
     <t>U29</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276</t>
   </si>
   <si>
     <t>U30</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277</t>
   </si>
   <si>
     <t>U31</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278</t>
   </si>
   <si>
     <t>U32</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279</t>
   </si>
   <si>
     <t>U33</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280</t>
   </si>
   <si>
     <t>U34</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281</t>
   </si>
   <si>
     <t>U35</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282</t>
   </si>
   <si>
     <t>U36</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283 </t>
+    <t>http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283</t>
   </si>
   <si>
     <t>U37</t>
@@ -1789,7 +1807,7 @@
     <t>S25FL064K0SMFI011</t>
   </si>
   <si>
-    <t> http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K </t>
+    <t>http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K</t>
   </si>
   <si>
     <t>U58</t>
@@ -1940,11 +1958,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
-    <numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-" numFmtId="166"/>
-    <numFmt formatCode="0.000" numFmtId="167"/>
+    <numFmt formatCode="0.000" numFmtId="166"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2086,7 +2103,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2110,12 +2127,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="166">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
@@ -2129,18 +2142,18 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2148,10 +2161,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -2161,8 +2171,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="166" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2171,14 +2180,13 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in TableStyleLight1" xfId="15"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2250,16 +2258,16 @@
   </sheetPr>
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A187" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="B202" activeCellId="0" pane="topLeft" sqref="B202"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B188" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
+      <selection activeCell="E189" activeCellId="0" pane="topLeft" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.2941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.556862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.3725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -2465,7 +2473,7 @@
       <c r="C17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2525,7 +2533,7 @@
       <c r="C20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -3025,7 +3033,7 @@
       <c r="C45" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -3525,7 +3533,7 @@
       <c r="C70" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="11" t="s">
@@ -4025,7 +4033,7 @@
       <c r="C95" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E95" s="11" t="s">
@@ -4540,7 +4548,7 @@
         <v>163</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>40</v>
@@ -4552,15 +4560,15 @@
         <v>161</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>40</v>
@@ -4572,15 +4580,15 @@
         <v>161</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>40</v>
@@ -4592,12 +4600,12 @@
         <v>161</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>159</v>
@@ -4612,15 +4620,15 @@
         <v>161</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>40</v>
@@ -4632,15 +4640,15 @@
         <v>161</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>40</v>
@@ -4652,15 +4660,15 @@
         <v>161</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>40</v>
@@ -4672,12 +4680,12 @@
         <v>161</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>159</v>
@@ -4692,15 +4700,15 @@
         <v>161</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>40</v>
@@ -4712,15 +4720,15 @@
         <v>161</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>40</v>
@@ -4732,15 +4740,15 @@
         <v>161</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>40</v>
@@ -4752,12 +4760,12 @@
         <v>161</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>159</v>
@@ -4772,15 +4780,15 @@
         <v>161</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>40</v>
@@ -4792,15 +4800,15 @@
         <v>161</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>40</v>
@@ -4812,15 +4820,15 @@
         <v>161</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="135">
       <c r="A135" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>40</v>
@@ -4832,15 +4840,15 @@
         <v>161</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>40</v>
@@ -4852,15 +4860,15 @@
         <v>161</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>40</v>
@@ -4872,15 +4880,15 @@
         <v>161</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>40</v>
@@ -4892,15 +4900,15 @@
         <v>161</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>40</v>
@@ -4912,15 +4920,15 @@
         <v>161</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>40</v>
@@ -4932,15 +4940,15 @@
         <v>161</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>40</v>
@@ -4952,15 +4960,15 @@
         <v>161</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>40</v>
@@ -4972,15 +4980,15 @@
         <v>161</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>40</v>
@@ -4992,15 +5000,15 @@
         <v>161</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>40</v>
@@ -5012,15 +5020,15 @@
         <v>161</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>40</v>
@@ -5032,15 +5040,15 @@
         <v>161</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>40</v>
@@ -5052,15 +5060,15 @@
         <v>161</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>40</v>
@@ -5072,15 +5080,15 @@
         <v>161</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>40</v>
@@ -5092,15 +5100,15 @@
         <v>161</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>40</v>
@@ -5112,15 +5120,15 @@
         <v>161</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>40</v>
@@ -5132,15 +5140,15 @@
         <v>161</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>40</v>
@@ -5152,15 +5160,15 @@
         <v>161</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>40</v>
@@ -5172,15 +5180,15 @@
         <v>161</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>40</v>
@@ -5192,15 +5200,15 @@
         <v>161</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="154">
+        <v>230</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>40</v>
@@ -5208,19 +5216,19 @@
       <c r="D154" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="155">
+      <c r="E154" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>40</v>
@@ -5228,19 +5236,19 @@
       <c r="D155" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E155" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="156">
+      <c r="E155" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>40</v>
@@ -5248,19 +5256,19 @@
       <c r="D156" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="157">
+      <c r="E156" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>40</v>
@@ -5268,19 +5276,19 @@
       <c r="D157" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="158">
+      <c r="E157" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>40</v>
@@ -5288,19 +5296,19 @@
       <c r="D158" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="159">
+      <c r="E158" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C159" s="0" t="s">
         <v>40</v>
@@ -5308,19 +5316,19 @@
       <c r="D159" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E159" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="160">
+      <c r="E159" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>40</v>
@@ -5328,19 +5336,19 @@
       <c r="D160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="161">
+      <c r="E160" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>40</v>
@@ -5348,3929 +5356,3929 @@
       <c r="D161" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E161" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>227</v>
+      <c r="E161" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
       <c r="A162" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
       <c r="A163" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
       <c r="A164" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
       <c r="A167" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="C167" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C173" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>257</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>271</v>
-      </c>
       <c r="C177" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="179">
       <c r="A179" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="189">
+        <v>304</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.45" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B189" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="D189" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E189" s="14" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.7" outlineLevel="0" r="202">
+        <v>332</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F202" s="16" t="s">
-        <v>332</v>
+        <v>287</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.45" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E204" s="12" t="s">
-        <v>337</v>
+      <c r="E204" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E205" s="12" t="s">
-        <v>337</v>
+      <c r="E205" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E206" s="12" t="s">
-        <v>337</v>
+      <c r="E206" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E207" s="12" t="s">
-        <v>337</v>
+      <c r="E207" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E208" s="12" t="s">
-        <v>337</v>
+      <c r="E208" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E209" s="12" t="s">
-        <v>337</v>
+      <c r="E209" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E210" s="12" t="s">
-        <v>337</v>
+      <c r="E210" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E211" s="12" t="s">
-        <v>337</v>
+      <c r="E211" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E212" s="12" t="s">
-        <v>337</v>
+      <c r="E212" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E213" s="12" t="s">
-        <v>337</v>
+      <c r="E213" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E214" s="12" t="s">
-        <v>337</v>
+      <c r="E214" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E215" s="12" t="s">
-        <v>337</v>
+      <c r="E215" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E216" s="12" t="s">
-        <v>337</v>
+      <c r="E216" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E217" s="12" t="s">
-        <v>337</v>
+      <c r="E217" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E218" s="12" t="s">
-        <v>337</v>
+      <c r="E218" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E219" s="12" t="s">
-        <v>337</v>
+      <c r="E219" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E220" s="12" t="s">
-        <v>337</v>
+      <c r="E220" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E221" s="12" t="s">
-        <v>337</v>
+      <c r="E221" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E222" s="12" t="s">
-        <v>337</v>
+      <c r="E222" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E223" s="12" t="s">
-        <v>337</v>
+      <c r="E223" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E224" s="12" t="s">
-        <v>337</v>
+      <c r="E224" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E225" s="12" t="s">
-        <v>337</v>
+      <c r="E225" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E226" s="12" t="s">
-        <v>337</v>
+      <c r="E226" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E227" s="12" t="s">
-        <v>337</v>
+      <c r="E227" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E228" s="12" t="s">
-        <v>337</v>
+      <c r="E228" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E229" s="12" t="s">
-        <v>337</v>
+      <c r="E229" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E230" s="12" t="s">
-        <v>337</v>
+      <c r="E230" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E231" s="12" t="s">
-        <v>337</v>
+      <c r="E231" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E232" s="12" t="s">
-        <v>337</v>
+      <c r="E232" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E233" s="12" t="s">
-        <v>337</v>
+      <c r="E233" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E234" s="12" t="s">
-        <v>337</v>
+      <c r="E234" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E235" s="12" t="s">
-        <v>337</v>
+      <c r="E235" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E236" s="12" t="s">
-        <v>337</v>
+      <c r="E236" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E237" s="12" t="s">
-        <v>337</v>
+      <c r="E237" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E238" s="12" t="s">
-        <v>337</v>
+      <c r="E238" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E239" s="12" t="s">
-        <v>337</v>
+      <c r="E239" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E240" s="12" t="s">
-        <v>337</v>
+      <c r="E240" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E241" s="12" t="s">
-        <v>337</v>
+      <c r="E241" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E242" s="12" t="s">
-        <v>337</v>
+      <c r="E242" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E243" s="12" t="s">
-        <v>337</v>
+      <c r="E243" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E244" s="12" t="s">
-        <v>337</v>
+      <c r="E244" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E245" s="12" t="s">
-        <v>337</v>
+      <c r="E245" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E246" s="12" t="s">
-        <v>337</v>
+      <c r="E246" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E247" s="12" t="s">
-        <v>337</v>
+      <c r="E247" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E248" s="12" t="s">
-        <v>337</v>
+      <c r="E248" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E249" s="12" t="s">
-        <v>337</v>
+      <c r="E249" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E250" s="12" t="s">
-        <v>337</v>
+      <c r="E250" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E251" s="12" t="s">
-        <v>337</v>
+      <c r="E251" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>390</v>
-      </c>
       <c r="C252" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E252" s="12" t="s">
-        <v>337</v>
+      <c r="E252" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E253" s="12" t="s">
-        <v>337</v>
+      <c r="E253" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E254" s="12" t="s">
-        <v>337</v>
+      <c r="E254" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E255" s="12" t="s">
-        <v>337</v>
+      <c r="E255" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C256" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E256" s="12" t="s">
-        <v>337</v>
+      <c r="E256" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E257" s="12" t="s">
-        <v>337</v>
+      <c r="E257" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E258" s="12" t="s">
-        <v>337</v>
+      <c r="E258" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E259" s="12" t="s">
-        <v>337</v>
+      <c r="E259" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E260" s="12" t="s">
-        <v>337</v>
+      <c r="E260" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E261" s="12" t="s">
-        <v>337</v>
+      <c r="E261" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E262" s="12" t="s">
-        <v>337</v>
+      <c r="E262" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E263" s="12" t="s">
-        <v>337</v>
+      <c r="E263" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E264" s="12" t="s">
-        <v>337</v>
+      <c r="E264" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E265" s="12" t="s">
-        <v>337</v>
+      <c r="E265" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E266" s="12" t="s">
-        <v>337</v>
+      <c r="E266" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E267" s="12" t="s">
-        <v>337</v>
+      <c r="E267" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E268" s="12" t="s">
-        <v>337</v>
+      <c r="E268" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E269" s="12" t="s">
-        <v>337</v>
+      <c r="E269" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E270" s="12" t="s">
-        <v>337</v>
+      <c r="E270" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E271" s="12" t="s">
-        <v>337</v>
+      <c r="E271" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E272" s="12" t="s">
-        <v>337</v>
+      <c r="E272" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E273" s="12" t="s">
-        <v>337</v>
+      <c r="E273" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E274" s="12" t="s">
-        <v>337</v>
+      <c r="E274" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E275" s="12" t="s">
-        <v>337</v>
+      <c r="E275" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E276" s="12" t="s">
-        <v>337</v>
+      <c r="E276" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E277" s="12" t="s">
-        <v>337</v>
+      <c r="E277" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E278" s="12" t="s">
-        <v>337</v>
+      <c r="E278" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E279" s="12" t="s">
-        <v>337</v>
+      <c r="E279" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E280" s="12" t="s">
-        <v>337</v>
+      <c r="E280" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E281" s="12" t="s">
-        <v>337</v>
+      <c r="E281" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E282" s="12" t="s">
-        <v>337</v>
+      <c r="E282" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E283" s="12" t="s">
-        <v>337</v>
+      <c r="E283" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E284" s="12" t="s">
-        <v>337</v>
+      <c r="E284" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E285" s="12" t="s">
-        <v>337</v>
+      <c r="E285" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C286" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E286" s="12" t="s">
-        <v>337</v>
+      <c r="E286" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E287" s="12" t="s">
-        <v>337</v>
+      <c r="E287" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E288" s="12" t="s">
-        <v>337</v>
+      <c r="E288" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E289" s="12" t="s">
-        <v>337</v>
+      <c r="E289" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E290" s="12" t="s">
-        <v>337</v>
+      <c r="E290" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E291" s="12" t="s">
-        <v>337</v>
+      <c r="E291" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E292" s="12" t="s">
-        <v>337</v>
+      <c r="E292" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E293" s="12" t="s">
-        <v>337</v>
+      <c r="E293" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E294" s="12" t="s">
-        <v>337</v>
+      <c r="E294" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E295" s="12" t="s">
-        <v>337</v>
+      <c r="E295" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E296" s="12" t="s">
-        <v>337</v>
+      <c r="E296" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E297" s="12" t="s">
-        <v>337</v>
+      <c r="E297" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="B298" s="16" t="s">
-        <v>444</v>
+        <v>449</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E298" s="12"/>
-      <c r="F298" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B299" s="16" t="s">
-        <v>444</v>
+        <v>454</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E299" s="12"/>
-      <c r="F299" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="E299" s="7"/>
+      <c r="F299" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E300" s="12"/>
-      <c r="F300" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="E300" s="7"/>
+      <c r="F300" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B301" s="0" t="s">
-        <v>444</v>
-      </c>
       <c r="C301" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E301" s="12"/>
-      <c r="F301" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="E301" s="7"/>
+      <c r="F301" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C302" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B302" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="D302" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E302" s="12"/>
-      <c r="F302" s="16" t="s">
-        <v>447</v>
+        <v>452</v>
+      </c>
+      <c r="E302" s="7"/>
+      <c r="F302" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E303" s="12" t="s">
-        <v>337</v>
+      <c r="E303" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E304" s="12" t="s">
-        <v>337</v>
+      <c r="E304" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E305" s="12" t="s">
-        <v>337</v>
+      <c r="E305" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E306" s="12" t="s">
-        <v>337</v>
+      <c r="E306" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E307" s="12" t="s">
-        <v>337</v>
+      <c r="E307" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E308" s="12" t="s">
-        <v>337</v>
+      <c r="E308" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E309" s="12" t="s">
-        <v>337</v>
+      <c r="E309" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E310" s="12" t="s">
-        <v>337</v>
+      <c r="E310" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E311" s="12" t="s">
-        <v>337</v>
+      <c r="E311" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C312" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E312" s="12" t="s">
-        <v>337</v>
+      <c r="E312" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E313" s="12" t="s">
-        <v>337</v>
+      <c r="E313" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E314" s="12" t="s">
-        <v>337</v>
+      <c r="E314" s="7" t="s">
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E317" s="11" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F318" s="17" t="s">
-        <v>485</v>
+        <v>490</v>
+      </c>
+      <c r="F318" s="16" t="s">
+        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E319" s="11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E320" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>155</v>
       </c>
       <c r="E325" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E331" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F331" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="E332" s="12" t="s">
-        <v>519</v>
+        <v>527</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>525</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F334" s="9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F335" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E337" s="11" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F337" s="9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F338" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E339" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F339" s="17" t="s">
-        <v>537</v>
+        <v>541</v>
+      </c>
+      <c r="E339" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F339" s="16" t="s">
+        <v>543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E340" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F340" s="17" t="s">
-        <v>539</v>
+        <v>541</v>
+      </c>
+      <c r="E340" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F340" s="16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B341" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>534</v>
-      </c>
       <c r="D341" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E341" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F341" s="17" t="s">
         <v>541</v>
+      </c>
+      <c r="E341" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F341" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E342" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B342" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E342" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F342" s="17" t="s">
-        <v>543</v>
+      <c r="F342" s="16" t="s">
+        <v>549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E343" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F343" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+      <c r="E343" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F343" s="16" t="s">
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E344" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F344" s="17" t="s">
-        <v>547</v>
+        <v>541</v>
+      </c>
+      <c r="E344" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F344" s="16" t="s">
+        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E345" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F345" s="17" t="s">
-        <v>549</v>
+        <v>541</v>
+      </c>
+      <c r="E345" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F345" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E346" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F346" s="17" t="s">
-        <v>551</v>
+        <v>541</v>
+      </c>
+      <c r="E346" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F346" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E347" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F347" s="17" t="s">
-        <v>553</v>
+        <v>541</v>
+      </c>
+      <c r="E347" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F347" s="16" t="s">
+        <v>559</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E348" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F348" s="17" t="s">
-        <v>555</v>
+        <v>541</v>
+      </c>
+      <c r="E348" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F348" s="16" t="s">
+        <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E349" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F349" s="17" t="s">
-        <v>557</v>
+        <v>541</v>
+      </c>
+      <c r="E349" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F349" s="16" t="s">
+        <v>563</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E350" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F350" s="17" t="s">
-        <v>559</v>
+        <v>541</v>
+      </c>
+      <c r="E350" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="F350" s="16" t="s">
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E352" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E353" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F353" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="6" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="6" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E356" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F356" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F357" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F358" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D359" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B359" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>566</v>
-      </c>
       <c r="E359" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="F360" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F360" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F361" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F362" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F363" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="6" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="6" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F366" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E367" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F367" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F368" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="6" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="6" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E371" s="14" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F371" s="9" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F372" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B376" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C376" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B380" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C380" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B382" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B383" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/TMK212AB7475KG-T/587-2990-2-ND/2714168 " ref="F10" r:id="rId1"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/C1608C0G1H471J/445-1289-2-ND/513775 " ref="F11" r:id="rId2"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM188R71C224KA01D/490-3293-1-ND/702834 " ref="F13" r:id="rId3"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F14" r:id="rId4"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F15" r:id="rId5"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F16" r:id="rId6"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 " ref="F17" r:id="rId7"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F18" r:id="rId8"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F19" r:id="rId9"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 " ref="F20" r:id="rId10"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F21" r:id="rId11"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/GRM155R71C104KA88D/490-3261-1-ND/702802?cur=USD " ref="F22" r:id="rId12"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F23" r:id="rId13"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F24" r:id="rId14"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F25" r:id="rId15"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F26" r:id="rId16"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F27" r:id="rId17"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F28" r:id="rId18"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F29" r:id="rId19"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F30" r:id="rId20"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F31" r:id="rId21"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F32" r:id="rId22"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F33" r:id="rId23"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F34" r:id="rId24"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F35" r:id="rId25"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F36" r:id="rId26"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F37" r:id="rId27"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F38" r:id="rId28"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F39" r:id="rId29"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F40" r:id="rId30"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F41" r:id="rId31"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F42" r:id="rId32"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F43" r:id="rId33"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F44" r:id="rId34"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 " ref="F45" r:id="rId35"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F46" r:id="rId36"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F47" r:id="rId37"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F48" r:id="rId38"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F49" r:id="rId39"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F50" r:id="rId40"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F51" r:id="rId41"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F52" r:id="rId42"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F53" r:id="rId43"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F54" r:id="rId44"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F55" r:id="rId45"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F56" r:id="rId46"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F57" r:id="rId47"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F58" r:id="rId48"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F59" r:id="rId49"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F60" r:id="rId50"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F61" r:id="rId51"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F62" r:id="rId52"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F63" r:id="rId53"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F64" r:id="rId54"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F65" r:id="rId55"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F66" r:id="rId56"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F67" r:id="rId57"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F68" r:id="rId58"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F69" r:id="rId59"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 " ref="F70" r:id="rId60"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F71" r:id="rId61"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F72" r:id="rId62"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F73" r:id="rId63"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F74" r:id="rId64"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F75" r:id="rId65"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F76" r:id="rId66"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F77" r:id="rId67"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F78" r:id="rId68"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F79" r:id="rId69"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F80" r:id="rId70"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F81" r:id="rId71"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F82" r:id="rId72"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F83" r:id="rId73"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F84" r:id="rId74"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F85" r:id="rId75"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F86" r:id="rId76"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F87" r:id="rId77"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F88" r:id="rId78"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F89" r:id="rId79"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F90" r:id="rId80"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F91" r:id="rId81"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F92" r:id="rId82"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F93" r:id="rId83"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F94" r:id="rId84"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410 " ref="F95" r:id="rId85"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F96" r:id="rId86"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F97" r:id="rId87"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F98" r:id="rId88"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F99" r:id="rId89"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F100" r:id="rId90"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F101" r:id="rId91"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F102" r:id="rId92"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F103" r:id="rId93"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F104" r:id="rId94"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F105" r:id="rId95"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F106" r:id="rId96"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F107" r:id="rId97"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F108" r:id="rId98"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F109" r:id="rId99"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F110" r:id="rId100"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F111" r:id="rId101"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F112" r:id="rId102"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F113" r:id="rId103"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F114" r:id="rId104"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F115" r:id="rId105"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F116" r:id="rId106"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND " ref="F117" r:id="rId107"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331 " ref="F118" r:id="rId108"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DFLS240LDICT-ND " ref="F119" r:id="rId109"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247 " ref="F120" r:id="rId110"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356248 " ref="F121" r:id="rId111"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356249 " ref="F122" r:id="rId112"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356250 " ref="F123" r:id="rId113"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356251 " ref="F124" r:id="rId114"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356252 " ref="F125" r:id="rId115"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356253 " ref="F126" r:id="rId116"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356254 " ref="F127" r:id="rId117"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356255 " ref="F128" r:id="rId118"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356256 " ref="F129" r:id="rId119"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356257 " ref="F130" r:id="rId120"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356258 " ref="F131" r:id="rId121"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356259 " ref="F132" r:id="rId122"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356260 " ref="F133" r:id="rId123"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356261 " ref="F134" r:id="rId124"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356262 " ref="F135" r:id="rId125"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356263 " ref="F136" r:id="rId126"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356264 " ref="F137" r:id="rId127"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356265 " ref="F138" r:id="rId128"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356266 " ref="F139" r:id="rId129"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356267 " ref="F140" r:id="rId130"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356268 " ref="F141" r:id="rId131"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356269 " ref="F142" r:id="rId132"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356270 " ref="F143" r:id="rId133"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356271 " ref="F144" r:id="rId134"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356272 " ref="F145" r:id="rId135"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356273 " ref="F146" r:id="rId136"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356274 " ref="F147" r:id="rId137"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356275 " ref="F148" r:id="rId138"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356276 " ref="F149" r:id="rId139"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356277 " ref="F150" r:id="rId140"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F151" r:id="rId141"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356279 " ref="F152" r:id="rId142"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356280 " ref="F153" r:id="rId143"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F154" r:id="rId144"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F155" r:id="rId145"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F156" r:id="rId146"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F157" r:id="rId147"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F158" r:id="rId148"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F159" r:id="rId149"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F160" r:id="rId150"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278 " ref="F161" r:id="rId151"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/LQH55PN2R2NR0L/490-5266-1-ND/2022072?cur=USD " ref="F168" r:id="rId152"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD " ref="F169" r:id="rId153"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD " ref="F170" r:id="rId154"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD " ref="F171" r:id="rId155"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD " ref="F172" r:id="rId156"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD " ref="F173" r:id="rId157"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/PJ-002BH/CP-002BH-ND/408447 " ref="F174" r:id="rId158"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F175" r:id="rId159"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F176" r:id="rId160"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F177" r:id="rId161"/>
-    <hyperlink display=" http://uk.farnell.com/harwin/m20-9981046/header-2row-10way/dp/1022242 " ref="F178" r:id="rId162"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F179" r:id="rId163"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F180" r:id="rId164"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F181" r:id="rId165"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F182" r:id="rId166"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F183" r:id="rId167"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F184" r:id="rId168"/>
-    <hyperlink display=" http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx " ref="F185" r:id="rId169"/>
-    <hyperlink display=" http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247 " ref="F189" r:id="rId170"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/TMK212AB7475KG-T/587-2990-2-ND/2714168" ref="F10" r:id="rId1"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/C1608C0G1H471J/445-1289-2-ND/513775" ref="F11" r:id="rId2"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM188R71C224KA01D/490-3293-1-ND/702834" ref="F13" r:id="rId3"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F14" r:id="rId4"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F15" r:id="rId5"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F16" r:id="rId6"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F17" r:id="rId7"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F18" r:id="rId8"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F19" r:id="rId9"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F20" r:id="rId10"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F21" r:id="rId11"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/GRM155R71C104KA88D/490-3261-1-ND/702802?cur=USD" ref="F22" r:id="rId12"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F23" r:id="rId13"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F24" r:id="rId14"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F25" r:id="rId15"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F26" r:id="rId16"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F27" r:id="rId17"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F28" r:id="rId18"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F29" r:id="rId19"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F30" r:id="rId20"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F31" r:id="rId21"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F32" r:id="rId22"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F33" r:id="rId23"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F34" r:id="rId24"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F35" r:id="rId25"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F36" r:id="rId26"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F37" r:id="rId27"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F38" r:id="rId28"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F39" r:id="rId29"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F40" r:id="rId30"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F41" r:id="rId31"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F42" r:id="rId32"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F43" r:id="rId33"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F44" r:id="rId34"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F45" r:id="rId35"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F46" r:id="rId36"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F47" r:id="rId37"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F48" r:id="rId38"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F49" r:id="rId39"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F50" r:id="rId40"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F51" r:id="rId41"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F52" r:id="rId42"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F53" r:id="rId43"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F54" r:id="rId44"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F55" r:id="rId45"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F56" r:id="rId46"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F57" r:id="rId47"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F58" r:id="rId48"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F59" r:id="rId49"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F60" r:id="rId50"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F61" r:id="rId51"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F62" r:id="rId52"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F63" r:id="rId53"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F64" r:id="rId54"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F65" r:id="rId55"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F66" r:id="rId56"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F67" r:id="rId57"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F68" r:id="rId58"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F69" r:id="rId59"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F70" r:id="rId60"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F71" r:id="rId61"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F72" r:id="rId62"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F73" r:id="rId63"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F74" r:id="rId64"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F75" r:id="rId65"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F76" r:id="rId66"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F77" r:id="rId67"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F78" r:id="rId68"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F79" r:id="rId69"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F80" r:id="rId70"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F81" r:id="rId71"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F82" r:id="rId72"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F83" r:id="rId73"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F84" r:id="rId74"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F85" r:id="rId75"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F86" r:id="rId76"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F87" r:id="rId77"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F88" r:id="rId78"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F89" r:id="rId79"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F90" r:id="rId80"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F91" r:id="rId81"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F92" r:id="rId82"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F93" r:id="rId83"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F94" r:id="rId84"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/0603YC330JAT2A/478-6211-1-ND/2391410" ref="F95" r:id="rId85"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F96" r:id="rId86"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F97" r:id="rId87"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F98" r:id="rId88"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F99" r:id="rId89"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F100" r:id="rId90"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F101" r:id="rId91"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F102" r:id="rId92"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F103" r:id="rId93"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F104" r:id="rId94"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F105" r:id="rId95"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F106" r:id="rId96"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F107" r:id="rId97"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F108" r:id="rId98"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F109" r:id="rId99"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F110" r:id="rId100"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F111" r:id="rId101"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F112" r:id="rId102"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F113" r:id="rId103"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F114" r:id="rId104"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F115" r:id="rId105"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F116" r:id="rId106"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-3261-1-ND" ref="F117" r:id="rId107"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/GRM219R61A106KE44D/490-4735-1-ND/1244331" ref="F118" r:id="rId108"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DFLS240LDICT-ND" ref="F119" r:id="rId109"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356247" ref="F120" r:id="rId110"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356248" ref="F121" r:id="rId111"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356249" ref="F122" r:id="rId112"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356250" ref="F123" r:id="rId113"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356251" ref="F124" r:id="rId114"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356252" ref="F125" r:id="rId115"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356253" ref="F126" r:id="rId116"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356254" ref="F127" r:id="rId117"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356255" ref="F128" r:id="rId118"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356256" ref="F129" r:id="rId119"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356257" ref="F130" r:id="rId120"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356258" ref="F131" r:id="rId121"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356259" ref="F132" r:id="rId122"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356260" ref="F133" r:id="rId123"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356261" ref="F134" r:id="rId124"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356262" ref="F135" r:id="rId125"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356263" ref="F136" r:id="rId126"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356264" ref="F137" r:id="rId127"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356265" ref="F138" r:id="rId128"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356266" ref="F139" r:id="rId129"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356267" ref="F140" r:id="rId130"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356268" ref="F141" r:id="rId131"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356269" ref="F142" r:id="rId132"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356270" ref="F143" r:id="rId133"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356271" ref="F144" r:id="rId134"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356272" ref="F145" r:id="rId135"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356273" ref="F146" r:id="rId136"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356274" ref="F147" r:id="rId137"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356275" ref="F148" r:id="rId138"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356276" ref="F149" r:id="rId139"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356277" ref="F150" r:id="rId140"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356278" ref="F151" r:id="rId141"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356279" ref="F152" r:id="rId142"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LTST-C193KGKT-5A/160-1828-1-ND/2356280" ref="F153" r:id="rId143"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F154" r:id="rId144"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F155" r:id="rId145"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F156" r:id="rId146"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F157" r:id="rId147"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F158" r:id="rId148"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F159" r:id="rId149"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F160" r:id="rId150"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LY%20Q976-P1S2-36/475-2558-2-ND/1228050" ref="F161" r:id="rId151"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/LQH55PN2R2NR0L/490-5266-1-ND/2022072?cur=USD" ref="F168" r:id="rId152"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F169" r:id="rId153"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F170" r:id="rId154"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F171" r:id="rId155"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F172" r:id="rId156"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NLCV32T-2R2M-PFR/445-3650-1-ND/1856618?cur=USD" ref="F173" r:id="rId157"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/PJ-002BH/CP-002BH-ND/408447" ref="F174" r:id="rId158"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F175" r:id="rId159"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F176" r:id="rId160"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F177" r:id="rId161"/>
+    <hyperlink display="http://uk.farnell.com/harwin/m20-9981046/header-2row-10way/dp/1022242" ref="F178" r:id="rId162"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F179" r:id="rId163"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F180" r:id="rId164"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F181" r:id="rId165"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F182" r:id="rId166"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F183" r:id="rId167"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F184" r:id="rId168"/>
+    <hyperlink display="http://www.toby.co.uk/content/catalogue/products.aspx?series=FFC5-xx-R-L-Tx" ref="F185" r:id="rId169"/>
+    <hyperlink display="http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247" ref="F189" r:id="rId170"/>
     <hyperlink display="http://uk.farnell.com/harwin/m20-9990346/header-1row-3way/dp/1022249" ref="F202" r:id="rId171"/>
-    <hyperlink display=" http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247 " ref="F203" r:id="rId172"/>
+    <hyperlink display="http://uk.farnell.com/harwin/m20-9990246/header-1row-2way/dp/1022247" ref="F203" r:id="rId172"/>
     <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F298" r:id="rId173"/>
     <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F299" r:id="rId174"/>
     <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F300" r:id="rId175"/>
     <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F301" r:id="rId176"/>
     <hyperlink display="http://uk.farnell.com/bourns/crm0805-fx-r100elf/resistor-0805-0r1-1/dp/1865233RL" ref="F302" r:id="rId177"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F315" r:id="rId178"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F316" r:id="rId179"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610 " ref="F317" r:id="rId180"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND " ref="F318" r:id="rId181"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F319" r:id="rId182"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948 " ref="F320" r:id="rId183"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F321" r:id="rId184"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F322" r:id="rId185"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F323" r:id="rId186"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F324" r:id="rId187"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND " ref="F325" r:id="rId188"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F326" r:id="rId189"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F327" r:id="rId190"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F328" r:id="rId191"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179 " ref="F329" r:id="rId192"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND " ref="F330" r:id="rId193"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F331" r:id="rId194"/>
-    <hyperlink display=" http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND " ref="F332" r:id="rId195"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F333" r:id="rId196"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F334" r:id="rId197"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F335" r:id="rId198"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F336" r:id="rId199"/>
-    <hyperlink display=" http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702 " ref="F337" r:id="rId200"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F338" r:id="rId201"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272 " ref="F339" r:id="rId202"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273 " ref="F340" r:id="rId203"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274 " ref="F341" r:id="rId204"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275 " ref="F342" r:id="rId205"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276 " ref="F343" r:id="rId206"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277 " ref="F344" r:id="rId207"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278 " ref="F345" r:id="rId208"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279 " ref="F346" r:id="rId209"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280 " ref="F347" r:id="rId210"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281 " ref="F348" r:id="rId211"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282 " ref="F349" r:id="rId212"/>
-    <hyperlink display=" http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283 " ref="F350" r:id="rId213"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F351" r:id="rId214"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F352" r:id="rId215"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F353" r:id="rId216"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F356" r:id="rId217"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F357" r:id="rId218"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F358" r:id="rId219"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F361" r:id="rId220"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F362" r:id="rId221"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F363" r:id="rId222"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F366" r:id="rId223"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F367" r:id="rId224"/>
-    <hyperlink display=" http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444 " ref="F368" r:id="rId225"/>
-    <hyperlink display=" http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K " ref="F371" r:id="rId226"/>
-    <hyperlink display=" http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD " ref="F372" r:id="rId227"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948" ref="F315" r:id="rId178"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F316" r:id="rId179"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/ASE-25.000MHZ-ET/535-9987-1-ND/2001610" ref="F317" r:id="rId180"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=LT3480EDD%23PBF-ND" ref="F318" r:id="rId181"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND" ref="F319" r:id="rId182"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/APX803-31SRG-7/APX803-31SRG-7DICT-ND/2285948" ref="F320" r:id="rId183"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F321" r:id="rId184"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F322" r:id="rId185"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F323" r:id="rId186"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F324" r:id="rId187"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=74AHC1GU04W5-7DICT-ND" ref="F325" r:id="rId188"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F326" r:id="rId189"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F327" r:id="rId190"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F328" r:id="rId191"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/SN74LVC1G18DCKR/296-15569-2-ND/571179" ref="F329" r:id="rId192"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-6487-1-ND" ref="F330" r:id="rId193"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F331" r:id="rId194"/>
+    <hyperlink display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=SW1026CT-ND" ref="F332" r:id="rId195"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F333" r:id="rId196"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702" ref="F334" r:id="rId197"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F335" r:id="rId198"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F336" r:id="rId199"/>
+    <hyperlink display="http://search.digikey.com/us/en/products/NC7WZ07P6X/NC7WZ07P6XCT-ND/965702" ref="F337" r:id="rId200"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F338" r:id="rId201"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235272" ref="F339" r:id="rId202"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235273" ref="F340" r:id="rId203"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235274" ref="F341" r:id="rId204"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235275" ref="F342" r:id="rId205"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235276" ref="F343" r:id="rId206"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235277" ref="F344" r:id="rId207"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235278" ref="F345" r:id="rId208"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235279" ref="F346" r:id="rId209"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235280" ref="F347" r:id="rId210"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235281" ref="F348" r:id="rId211"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235282" ref="F349" r:id="rId212"/>
+    <hyperlink display="http://uk.farnell.com/yageo-phycomp/yc124-jr-0733rl/resistor-array-arv341-0804-33r/dp/9235283" ref="F350" r:id="rId213"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F351" r:id="rId214"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F352" r:id="rId215"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F353" r:id="rId216"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F356" r:id="rId217"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F357" r:id="rId218"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F358" r:id="rId219"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F361" r:id="rId220"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F362" r:id="rId221"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F363" r:id="rId222"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F366" r:id="rId223"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F367" r:id="rId224"/>
+    <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F368" r:id="rId225"/>
+    <hyperlink display="http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K" ref="F371" r:id="rId226"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F372" r:id="rId227"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9290,11 +9298,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E189 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9315,11 +9323,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E189 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Manufacturing/Swallow-V2/bom/Swallow-V2-BOM.xlsx
+++ b/Manufacturing/Swallow-V2/bom/Swallow-V2-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="642">
   <si>
     <t>XMP16-V2 BOM</t>
   </si>
@@ -1795,19 +1795,13 @@
     <t>U57</t>
   </si>
   <si>
-    <t>S25FL064K</t>
+    <t>MX25L6445E</t>
   </si>
   <si>
     <t>SOC088 Wide</t>
   </si>
   <si>
-    <t>Spansion</t>
-  </si>
-  <si>
-    <t>S25FL064K0SMFI011</t>
-  </si>
-  <si>
-    <t>http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K</t>
+    <t>Macronix</t>
   </si>
   <si>
     <t>U58</t>
@@ -2258,19 +2252,19 @@
   </sheetPr>
   <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B188" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="E189" activeCellId="0" pane="topLeft" sqref="E189"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A347" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
+      <selection activeCell="B371" activeCellId="0" pane="topLeft" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.3725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.22745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.4509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.71372549019608"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,31 +2273,31 @@
         <v>41127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
       <c r="E2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="B4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.95" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -5363,7 +5357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="162">
       <c r="A162" s="5" t="s">
         <v>249</v>
       </c>
@@ -5374,7 +5368,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="163">
       <c r="A163" s="5" t="s">
         <v>252</v>
       </c>
@@ -5385,7 +5379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="164">
       <c r="A164" s="5" t="s">
         <v>253</v>
       </c>
@@ -5396,7 +5390,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
         <v>254</v>
       </c>
@@ -5407,7 +5401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
         <v>255</v>
       </c>
@@ -5418,7 +5412,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="167">
       <c r="A167" s="5" t="s">
         <v>256</v>
       </c>
@@ -5789,7 +5783,7 @@
         <v>281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
         <v>297</v>
       </c>
@@ -5800,7 +5794,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
         <v>300</v>
       </c>
@@ -5811,7 +5805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
         <v>302</v>
       </c>
@@ -5822,7 +5816,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.45" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
         <v>305</v>
       </c>
@@ -5842,7 +5836,7 @@
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
         <v>309</v>
       </c>
@@ -5853,7 +5847,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
         <v>311</v>
       </c>
@@ -5864,7 +5858,7 @@
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
         <v>314</v>
       </c>
@@ -5875,7 +5869,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
         <v>316</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
         <v>318</v>
       </c>
@@ -5897,7 +5891,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
         <v>321</v>
       </c>
@@ -5908,7 +5902,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
         <v>322</v>
       </c>
@@ -5919,7 +5913,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
         <v>324</v>
       </c>
@@ -5930,7 +5924,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
         <v>326</v>
       </c>
@@ -5941,7 +5935,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
         <v>328</v>
       </c>
@@ -5952,7 +5946,7 @@
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
         <v>330</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
         <v>333</v>
       </c>
@@ -5994,7 +5988,7 @@
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.45" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
         <v>339</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
         <v>341</v>
       </c>
@@ -6028,7 +6022,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
         <v>344</v>
       </c>
@@ -6042,7 +6036,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
         <v>346</v>
       </c>
@@ -6056,7 +6050,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
         <v>348</v>
       </c>
@@ -6070,7 +6064,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
         <v>349</v>
       </c>
@@ -6084,7 +6078,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
         <v>351</v>
       </c>
@@ -6098,7 +6092,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
         <v>353</v>
       </c>
@@ -6112,7 +6106,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
         <v>355</v>
       </c>
@@ -6126,7 +6120,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
         <v>357</v>
       </c>
@@ -6140,7 +6134,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
         <v>358</v>
       </c>
@@ -6154,7 +6148,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
         <v>359</v>
       </c>
@@ -6168,7 +6162,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
         <v>360</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
         <v>361</v>
       </c>
@@ -6196,7 +6190,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
         <v>362</v>
       </c>
@@ -6210,7 +6204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
         <v>363</v>
       </c>
@@ -6224,7 +6218,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
         <v>364</v>
       </c>
@@ -6238,7 +6232,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
         <v>365</v>
       </c>
@@ -6252,7 +6246,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
         <v>366</v>
       </c>
@@ -6266,7 +6260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
         <v>368</v>
       </c>
@@ -6280,7 +6274,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
         <v>369</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
         <v>370</v>
       </c>
@@ -6308,7 +6302,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
         <v>371</v>
       </c>
@@ -6322,7 +6316,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
         <v>372</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
         <v>373</v>
       </c>
@@ -6350,7 +6344,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
         <v>374</v>
       </c>
@@ -6364,7 +6358,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
         <v>375</v>
       </c>
@@ -6378,7 +6372,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
         <v>376</v>
       </c>
@@ -6392,7 +6386,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
         <v>378</v>
       </c>
@@ -6406,7 +6400,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
         <v>379</v>
       </c>
@@ -6420,7 +6414,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
         <v>380</v>
       </c>
@@ -6434,7 +6428,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
         <v>381</v>
       </c>
@@ -6448,7 +6442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
         <v>382</v>
       </c>
@@ -6462,7 +6456,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
         <v>383</v>
       </c>
@@ -6476,7 +6470,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
         <v>384</v>
       </c>
@@ -6490,7 +6484,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
         <v>385</v>
       </c>
@@ -6504,7 +6498,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
         <v>386</v>
       </c>
@@ -6518,7 +6512,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
         <v>387</v>
       </c>
@@ -6532,7 +6526,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
         <v>388</v>
       </c>
@@ -6546,7 +6540,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
         <v>389</v>
       </c>
@@ -6560,7 +6554,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
         <v>390</v>
       </c>
@@ -6574,7 +6568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
         <v>391</v>
       </c>
@@ -6588,7 +6582,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
         <v>392</v>
       </c>
@@ -6602,7 +6596,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
         <v>394</v>
       </c>
@@ -6616,7 +6610,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
         <v>395</v>
       </c>
@@ -6630,7 +6624,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
         <v>397</v>
       </c>
@@ -6644,7 +6638,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
         <v>398</v>
       </c>
@@ -6658,7 +6652,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
         <v>399</v>
       </c>
@@ -6672,7 +6666,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
         <v>400</v>
       </c>
@@ -6686,7 +6680,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
         <v>402</v>
       </c>
@@ -6700,7 +6694,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
         <v>403</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
         <v>404</v>
       </c>
@@ -6728,7 +6722,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
         <v>405</v>
       </c>
@@ -6742,7 +6736,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
         <v>406</v>
       </c>
@@ -6756,7 +6750,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
         <v>407</v>
       </c>
@@ -6770,7 +6764,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
         <v>408</v>
       </c>
@@ -6784,7 +6778,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
         <v>409</v>
       </c>
@@ -6798,7 +6792,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
         <v>410</v>
       </c>
@@ -6812,7 +6806,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
         <v>411</v>
       </c>
@@ -6826,7 +6820,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
         <v>412</v>
       </c>
@@ -6840,7 +6834,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
         <v>413</v>
       </c>
@@ -6854,7 +6848,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
         <v>414</v>
       </c>
@@ -6868,7 +6862,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
         <v>415</v>
       </c>
@@ -6882,7 +6876,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
         <v>416</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
         <v>417</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
         <v>418</v>
       </c>
@@ -6924,7 +6918,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
         <v>419</v>
       </c>
@@ -6938,7 +6932,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
         <v>420</v>
       </c>
@@ -6952,7 +6946,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
         <v>421</v>
       </c>
@@ -6966,7 +6960,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
         <v>422</v>
       </c>
@@ -6980,7 +6974,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
         <v>423</v>
       </c>
@@ -6994,7 +6988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
         <v>424</v>
       </c>
@@ -7008,7 +7002,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
         <v>425</v>
       </c>
@@ -7022,7 +7016,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
         <v>426</v>
       </c>
@@ -7036,7 +7030,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
         <v>427</v>
       </c>
@@ -7050,7 +7044,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
         <v>428</v>
       </c>
@@ -7064,7 +7058,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
         <v>429</v>
       </c>
@@ -7078,7 +7072,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
         <v>430</v>
       </c>
@@ -7092,7 +7086,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
         <v>431</v>
       </c>
@@ -7106,7 +7100,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
         <v>432</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
         <v>433</v>
       </c>
@@ -7134,7 +7128,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
         <v>434</v>
       </c>
@@ -7148,7 +7142,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
         <v>435</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
         <v>436</v>
       </c>
@@ -7176,7 +7170,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
         <v>437</v>
       </c>
@@ -7190,7 +7184,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
         <v>438</v>
       </c>
@@ -7204,7 +7198,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
         <v>439</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
         <v>440</v>
       </c>
@@ -7232,7 +7226,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
         <v>441</v>
       </c>
@@ -7246,7 +7240,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
         <v>442</v>
       </c>
@@ -7260,7 +7254,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
         <v>443</v>
       </c>
@@ -7274,7 +7268,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
         <v>444</v>
       </c>
@@ -7288,7 +7282,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
         <v>445</v>
       </c>
@@ -7302,7 +7296,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
         <v>446</v>
       </c>
@@ -7316,7 +7310,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
         <v>448</v>
       </c>
@@ -7420,7 +7414,7 @@
         <v>453</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
         <v>458</v>
       </c>
@@ -7434,7 +7428,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
         <v>459</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
         <v>460</v>
       </c>
@@ -7462,7 +7456,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
         <v>461</v>
       </c>
@@ -7476,7 +7470,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
         <v>462</v>
       </c>
@@ -7490,7 +7484,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
         <v>463</v>
       </c>
@@ -7504,7 +7498,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
         <v>464</v>
       </c>
@@ -7518,7 +7512,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
         <v>465</v>
       </c>
@@ -7532,7 +7526,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
         <v>466</v>
       </c>
@@ -7546,7 +7540,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
         <v>467</v>
       </c>
@@ -7560,7 +7554,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
         <v>468</v>
       </c>
@@ -7574,7 +7568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
         <v>469</v>
       </c>
@@ -8362,7 +8356,7 @@
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="354">
       <c r="A354" s="6" t="s">
         <v>569</v>
       </c>
@@ -8382,7 +8376,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="355">
       <c r="A355" s="6" t="s">
         <v>574</v>
       </c>
@@ -8462,7 +8456,7 @@
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="359">
       <c r="A359" s="6" t="s">
         <v>578</v>
       </c>
@@ -8482,7 +8476,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="360">
       <c r="A360" s="6" t="s">
         <v>579</v>
       </c>
@@ -8562,7 +8556,7 @@
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="364">
       <c r="A364" s="6" t="s">
         <v>583</v>
       </c>
@@ -8582,7 +8576,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="365">
       <c r="A365" s="6" t="s">
         <v>584</v>
       </c>
@@ -8662,7 +8656,7 @@
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="369">
       <c r="A369" s="6" t="s">
         <v>588</v>
       </c>
@@ -8682,7 +8676,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="370">
       <c r="A370" s="6" t="s">
         <v>589</v>
       </c>
@@ -8702,7 +8696,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="371">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
         <v>590</v>
       </c>
@@ -8716,15 +8710,13 @@
         <v>593</v>
       </c>
       <c r="E371" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="F371" s="9" t="s">
-        <v>595</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="F371" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B372" s="0" t="s">
         <v>476</v>
@@ -8742,312 +8734,312 @@
         <v>480</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C373" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B373" s="5" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="374">
+      <c r="A374" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="B374" s="5" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
-      <c r="A374" s="0" t="s">
+      <c r="C374" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="375">
+      <c r="A375" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B375" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C374" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
-      <c r="A375" s="0" t="s">
+      <c r="C375" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="376">
+      <c r="A376" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B376" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C375" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
-      <c r="A376" s="0" t="s">
+      <c r="C376" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="377">
+      <c r="A377" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B377" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C376" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
-      <c r="A377" s="0" t="s">
+      <c r="C377" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B377" s="5" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="378">
+      <c r="A378" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="B378" s="5" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
-      <c r="A378" s="0" t="s">
+      <c r="C378" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="379">
+      <c r="A379" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B379" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C378" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
-      <c r="A379" s="0" t="s">
+      <c r="C379" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="380">
+      <c r="A380" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B380" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C379" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
-      <c r="A380" s="0" t="s">
+      <c r="C380" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="381">
+      <c r="A381" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
-      <c r="A381" s="0" t="s">
-        <v>615</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="383">
+      <c r="A383" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="384">
+      <c r="A384" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B382" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
-      <c r="A383" s="0" t="s">
+      <c r="B384" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B383" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
-      <c r="A384" s="0" t="s">
+      <c r="C384" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="385">
+      <c r="A385" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="B385" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="386">
+      <c r="A386" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
-      <c r="A385" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
-      <c r="A386" s="0" t="s">
-        <v>621</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="388">
+      <c r="A388" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
-      <c r="A388" s="0" t="s">
-        <v>624</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="390">
+      <c r="A390" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
-      <c r="A390" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="395">
+      <c r="A395" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
-      <c r="A395" s="0" t="s">
+      <c r="C395" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="396">
+      <c r="A396" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B396" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C395" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
-      <c r="A396" s="0" t="s">
+      <c r="C396" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="397">
+      <c r="A397" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B397" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C396" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
-      <c r="A397" s="0" t="s">
+      <c r="C397" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="398">
+      <c r="A398" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B398" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
-      <c r="A398" s="0" t="s">
+      <c r="C398" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="399">
+      <c r="A399" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B399" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C398" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
-      <c r="A399" s="0" t="s">
+      <c r="C399" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="400">
+      <c r="A400" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B400" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C399" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
-      <c r="A400" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>643</v>
-      </c>
       <c r="C400" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -9277,8 +9269,7 @@
     <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F366" r:id="rId223"/>
     <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F367" r:id="rId224"/>
     <hyperlink display="http://search.digikey.com/uk/en/products/NCP1529ASNT1G/NCP1529ASNT1GOSTR-ND/1792444" ref="F368" r:id="rId225"/>
-    <hyperlink display="http://uk.farnell.com/spansion/s25fl064k0smfi011/memory-flash-64m-3v-spi-8soic/dp/1861631?Ntt=S25FL064K" ref="F371" r:id="rId226"/>
-    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F372" r:id="rId227"/>
+    <hyperlink display="http://www.digikey.com/product-detail/en/NC7WZ17P6X/NC7WZ17P6XCT-ND/965707?cur=USD" ref="F372" r:id="rId226"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9298,11 +9289,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E189 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B371 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.71372549019608"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9323,11 +9314,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E189 A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B371 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.71372549019608"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
